--- a/Small_molecule_data_large_array/AAs/Reformatted_AA_csvs/V_repeat_8.xlsx
+++ b/Small_molecule_data_large_array/AAs/Reformatted_AA_csvs/V_repeat_8.xlsx
@@ -1,293 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/Small_molecule_data_large_array/AAs/Reformatted_AA_csvs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A292F51-787D-3C47-9EE0-91F2C99DACF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="End point" sheetId="1" r:id="rId1"/>
-    <sheet name="Protocol Information" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End point" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Protocol Information" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
-  <si>
-    <t>User: USER</t>
-  </si>
-  <si>
-    <t>Path: C:\Program Files (x86)\BMG\CLARIOstar\User\Data\</t>
-  </si>
-  <si>
-    <t>Test ID: 734</t>
-  </si>
-  <si>
-    <t>Test Name: Will 384 DPH 48array</t>
-  </si>
-  <si>
-    <t>Date: 18/03/2020</t>
-  </si>
-  <si>
-    <t>Time: 12:46:44</t>
-  </si>
-  <si>
-    <t>ID1: 180320_Valine_repeat_7</t>
-  </si>
-  <si>
-    <t>Fluorescence (FI), multichromatic</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Plate layout</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>7:12</t>
-  </si>
-  <si>
-    <t>13:18</t>
-  </si>
-  <si>
-    <t>19:24</t>
-  </si>
-  <si>
-    <t>A:H</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Blank</t>
-  </si>
-  <si>
-    <t>I:P</t>
-  </si>
-  <si>
-    <t>Peptide layout</t>
-  </si>
-  <si>
-    <t>No Pep</t>
-  </si>
-  <si>
-    <t>CCPent</t>
-  </si>
-  <si>
-    <t>QLKEIA</t>
-  </si>
-  <si>
-    <t>CCHex2-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-I24N</t>
-  </si>
-  <si>
-    <t>CCHept-L28W</t>
-  </si>
-  <si>
-    <t>GRP22</t>
-  </si>
-  <si>
-    <t>CCHex</t>
-  </si>
-  <si>
-    <t>NLKEIA</t>
-  </si>
-  <si>
-    <t>CCHept-L28K</t>
-  </si>
-  <si>
-    <t>CCHept-I24T</t>
-  </si>
-  <si>
-    <t>CCHept-L7Y</t>
-  </si>
-  <si>
-    <t>GRP35</t>
-  </si>
-  <si>
-    <t>CCHex2</t>
-  </si>
-  <si>
-    <t>CCHept-I17G-L21G</t>
-  </si>
-  <si>
-    <t>CCHept-I17H</t>
-  </si>
-  <si>
-    <t>CCHept-I24H</t>
-  </si>
-  <si>
-    <t>CCHept-L28Y</t>
-  </si>
-  <si>
-    <t>GRP46</t>
-  </si>
-  <si>
-    <t>CCHept</t>
-  </si>
-  <si>
-    <t>CCHept-I17A-L21A</t>
-  </si>
-  <si>
-    <t>CCHept-I17K-L24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21S-I24S</t>
-  </si>
-  <si>
-    <t>CCHept-I24Y</t>
-  </si>
-  <si>
-    <t>GRP51</t>
-  </si>
-  <si>
-    <t>CCHept-I24D</t>
-  </si>
-  <si>
-    <t>CCHept-L14A</t>
-  </si>
-  <si>
-    <t>CCHept-L7K</t>
-  </si>
-  <si>
-    <t>CCHept-L21N-I24N</t>
-  </si>
-  <si>
-    <t>CCHept-L21S-I24Y</t>
-  </si>
-  <si>
-    <t>GRP52</t>
-  </si>
-  <si>
-    <t>CCHept-I24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21A</t>
-  </si>
-  <si>
-    <t>CCHept-L21K-I24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21T-I24T</t>
-  </si>
-  <si>
-    <t>CCHept-L21Y-I24S</t>
-  </si>
-  <si>
-    <t>GRP63</t>
-  </si>
-  <si>
-    <t>CCHept-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-L21K</t>
-  </si>
-  <si>
-    <t>CCHept-L21E-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-L21H-I24H</t>
-  </si>
-  <si>
-    <t>CCHept-I17T</t>
-  </si>
-  <si>
-    <t>GRP80</t>
-  </si>
-  <si>
-    <t>CCHept-I17K</t>
-  </si>
-  <si>
-    <t>CCPent-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-I24S</t>
-  </si>
-  <si>
-    <t>CCHept-L7W</t>
-  </si>
-  <si>
-    <t>CCHept-I24P</t>
-  </si>
-  <si>
-    <t>1. Raw Data (350-15/450-20 1)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -306,21 +47,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -608,1363 +340,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A3:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>User: USER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Path: C:\Program Files (x86)\BMG\CLARIOstar\User\Data\</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Test ID: 734</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Test Name: Will 384 DPH 48array</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Date: 18/03/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Time: 12:46:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ID1: 180320_Valine_repeat_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fluorescence (FI), multichromatic</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1. Raw Data (350-15/450-20 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C15" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="E15" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="F15" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="G15" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="H15" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>9</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>11</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>12</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>13</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>14</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>15</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>16</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>17</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>18</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>19</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>20</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>21</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>22</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>23</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>266</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>7861</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>352</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>15536</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>4316</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>9579</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>255</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>8487</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>356</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>16490</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>4239</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>10066</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>288</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>8359</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>390</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>16525</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>4629</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>10601</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>340</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>7173</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>417</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>15876</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>4386</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>10349</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>26621</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>9580</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>26525</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>16215</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>6413</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>7549</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>27602</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>9404</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>27603</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>16773</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>6649</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>7739</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>29900</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>9798</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>26912</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>16800</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>7360</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>8873</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>29863</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>8855</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>25321</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>16320</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>7063</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="n">
         <v>8982</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>335</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>5918</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>11021</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>10211</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>3640</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>12394</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>318</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>7337</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>12663</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>10623</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>3106</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>13833</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>345</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>5938</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>10846</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>10457</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>3330</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>12999</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>375</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>6493</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>10466</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>9784</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>3774</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" t="n">
         <v>13919</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>1537</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>9596</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>29048</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>626</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>15884</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>12230</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>1313</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>10816</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>29981</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>663</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>16108</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>12935</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>1402</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>9173</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>30684</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>553</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>14762</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>11987</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>1246</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>8259</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>28504</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>686</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>16834</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="n">
         <v>12460</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>29264</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>8053</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>25922</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>8778</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>11104</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>13875</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>30219</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>8443</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>27001</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>9356</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>11779</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>14381</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>30493</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>8165</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>26907</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>8883</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>11355</v>
       </c>
-      <c r="S20">
+      <c r="S20" t="n">
         <v>14968</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="n">
         <v>31509</v>
       </c>
-      <c r="U20">
+      <c r="U20" t="n">
         <v>7755</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="n">
         <v>24807</v>
       </c>
-      <c r="W20">
+      <c r="W20" t="n">
         <v>8878</v>
       </c>
-      <c r="X20">
+      <c r="X20" t="n">
         <v>11650</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" t="n">
         <v>17466</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>37481</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>20809</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>16373</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>10464</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>6960</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>13611</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>37330</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>21114</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>17205</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>13438</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>7845</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>14795</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>41404</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>21989</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>17052</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>10542</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>7348</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="n">
         <v>13585</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="n">
         <v>38234</v>
       </c>
-      <c r="U21">
+      <c r="U21" t="n">
         <v>21669</v>
       </c>
-      <c r="V21">
+      <c r="V21" t="n">
         <v>17685</v>
       </c>
-      <c r="W21">
+      <c r="W21" t="n">
         <v>10848</v>
       </c>
-      <c r="X21">
+      <c r="X21" t="n">
         <v>7674</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" t="n">
         <v>16188</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>26338</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>15080</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>7415</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>8690</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>6489</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>1382</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>23429</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>17119</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>6412</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>9908</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>6380</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>1376</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>22823</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>14797</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>6651</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>8706</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>5737</v>
       </c>
-      <c r="S22">
+      <c r="S22" t="n">
         <v>1324</v>
       </c>
-      <c r="T22">
+      <c r="T22" t="n">
         <v>21307</v>
       </c>
-      <c r="U22">
+      <c r="U22" t="n">
         <v>15243</v>
       </c>
-      <c r="V22">
+      <c r="V22" t="n">
         <v>6512</v>
       </c>
-      <c r="W22">
+      <c r="W22" t="n">
         <v>9123</v>
       </c>
-      <c r="X22">
+      <c r="X22" t="n">
         <v>5961</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" t="n">
         <v>1484</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>6712</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>1321</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>1137</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>15634</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>7453</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>9958</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>6102</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>1359</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>1145</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>14546</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>7037</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>10440</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>6010</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>1266</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>1099</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>14358</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>7062</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="n">
         <v>9804</v>
       </c>
-      <c r="T23">
+      <c r="T23" t="n">
         <v>4818</v>
       </c>
-      <c r="U23">
+      <c r="U23" t="n">
         <v>1263</v>
       </c>
-      <c r="V23">
+      <c r="V23" t="n">
         <v>1193</v>
       </c>
-      <c r="W23">
+      <c r="W23" t="n">
         <v>14307</v>
       </c>
-      <c r="X23">
+      <c r="X23" t="n">
         <v>7404</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" t="n">
         <v>10684</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>287</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>9885</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>356</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>15659</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>4244</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>10583</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>285</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>10021</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>356</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>18023</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>4329</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>10065</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>277</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>9009</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>391</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="n">
         <v>17132</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>4161</v>
       </c>
-      <c r="S24">
+      <c r="S24" t="n">
         <v>10314</v>
       </c>
-      <c r="T24">
+      <c r="T24" t="n">
         <v>341</v>
       </c>
-      <c r="U24">
+      <c r="U24" t="n">
         <v>8546</v>
       </c>
-      <c r="V24">
+      <c r="V24" t="n">
         <v>423</v>
       </c>
-      <c r="W24">
+      <c r="W24" t="n">
         <v>14760</v>
       </c>
-      <c r="X24">
+      <c r="X24" t="n">
         <v>4415</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" t="n">
         <v>8962</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>34312</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>9517</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>25882</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>17582</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>5800</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>7445</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>32940</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>9313</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>26103</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>18063</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>6220</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>8647</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>32401</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="n">
         <v>9188</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="n">
         <v>26614</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="n">
         <v>16693</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="n">
         <v>5796</v>
       </c>
-      <c r="S25">
+      <c r="S25" t="n">
         <v>9005</v>
       </c>
-      <c r="T25">
+      <c r="T25" t="n">
         <v>25997</v>
       </c>
-      <c r="U25">
+      <c r="U25" t="n">
         <v>9551</v>
       </c>
-      <c r="V25">
+      <c r="V25" t="n">
         <v>21573</v>
       </c>
-      <c r="W25">
+      <c r="W25" t="n">
         <v>16994</v>
       </c>
-      <c r="X25">
+      <c r="X25" t="n">
         <v>5939</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" t="n">
         <v>7736</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>322</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>7583</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>10515</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>8512</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>2359</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>13654</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>359</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>6818</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>10413</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>9144</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>2690</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>14104</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>330</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="n">
         <v>7166</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="n">
         <v>13459</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="n">
         <v>9652</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="n">
         <v>3057</v>
       </c>
-      <c r="S26">
+      <c r="S26" t="n">
         <v>14795</v>
       </c>
-      <c r="T26">
+      <c r="T26" t="n">
         <v>386</v>
       </c>
-      <c r="U26">
+      <c r="U26" t="n">
         <v>6568</v>
       </c>
-      <c r="V26">
+      <c r="V26" t="n">
         <v>10713</v>
       </c>
-      <c r="W26">
+      <c r="W26" t="n">
         <v>9496</v>
       </c>
-      <c r="X26">
+      <c r="X26" t="n">
         <v>3513</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" t="n">
         <v>15715</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>1345</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>9684</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>28172</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>556</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>14238</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>11057</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>1326</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>9678</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>27717</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>497</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>14565</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>11890</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="n">
         <v>1174</v>
       </c>
-      <c r="O27">
+      <c r="O27" t="n">
         <v>10195</v>
       </c>
-      <c r="P27">
+      <c r="P27" t="n">
         <v>28528</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="n">
         <v>634</v>
       </c>
-      <c r="R27">
+      <c r="R27" t="n">
         <v>15347</v>
       </c>
-      <c r="S27">
+      <c r="S27" t="n">
         <v>11378</v>
       </c>
-      <c r="T27">
+      <c r="T27" t="n">
         <v>1340</v>
       </c>
-      <c r="U27">
+      <c r="U27" t="n">
         <v>9381</v>
       </c>
-      <c r="V27">
+      <c r="V27" t="n">
         <v>27620</v>
       </c>
-      <c r="W27">
+      <c r="W27" t="n">
         <v>605</v>
       </c>
-      <c r="X27">
+      <c r="X27" t="n">
         <v>15404</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" t="n">
         <v>12527</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>32698</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>8578</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>24467</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>8918</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>12146</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>15292</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>33148</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>11212</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>25234</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>10673</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>11047</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>16960</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="n">
         <v>28434</v>
       </c>
-      <c r="O28">
+      <c r="O28" t="n">
         <v>10289</v>
       </c>
-      <c r="P28">
+      <c r="P28" t="n">
         <v>24230</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="n">
         <v>7800</v>
       </c>
-      <c r="R28">
+      <c r="R28" t="n">
         <v>10614</v>
       </c>
-      <c r="S28">
+      <c r="S28" t="n">
         <v>15259</v>
       </c>
-      <c r="T28">
+      <c r="T28" t="n">
         <v>28299</v>
       </c>
-      <c r="U28">
+      <c r="U28" t="n">
         <v>8503</v>
       </c>
-      <c r="V28">
+      <c r="V28" t="n">
         <v>22826</v>
       </c>
-      <c r="W28">
+      <c r="W28" t="n">
         <v>7788</v>
       </c>
-      <c r="X28">
+      <c r="X28" t="n">
         <v>8930</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" t="n">
         <v>15067</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>46263</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>24135</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>17946</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>14106</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>9169</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>15018</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>39838</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>21175</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>18277</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>10160</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>7733</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>15540</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="n">
         <v>39614</v>
       </c>
-      <c r="O29">
+      <c r="O29" t="n">
         <v>20942</v>
       </c>
-      <c r="P29">
+      <c r="P29" t="n">
         <v>17401</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="n">
         <v>10057</v>
       </c>
-      <c r="R29">
+      <c r="R29" t="n">
         <v>8480</v>
       </c>
-      <c r="S29">
+      <c r="S29" t="n">
         <v>14005</v>
       </c>
-      <c r="T29">
+      <c r="T29" t="n">
         <v>36962</v>
       </c>
-      <c r="U29">
+      <c r="U29" t="n">
         <v>19627</v>
       </c>
-      <c r="V29">
+      <c r="V29" t="n">
         <v>13873</v>
       </c>
-      <c r="W29">
+      <c r="W29" t="n">
         <v>10905</v>
       </c>
-      <c r="X29">
+      <c r="X29" t="n">
         <v>6738</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" t="n">
         <v>15427</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>27147</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>21619</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>7120</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>9873</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>7252</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>1460</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>25800</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>19793</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>6949</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>9497</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>6252</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>1307</v>
       </c>
-      <c r="N30">
+      <c r="N30" t="n">
         <v>25651</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="n">
         <v>20915</v>
       </c>
-      <c r="P30">
+      <c r="P30" t="n">
         <v>8797</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="n">
         <v>9781</v>
       </c>
-      <c r="R30">
+      <c r="R30" t="n">
         <v>6375</v>
       </c>
-      <c r="S30">
+      <c r="S30" t="n">
         <v>1242</v>
       </c>
-      <c r="T30">
+      <c r="T30" t="n">
         <v>24507</v>
       </c>
-      <c r="U30">
+      <c r="U30" t="n">
         <v>18584</v>
       </c>
-      <c r="V30">
+      <c r="V30" t="n">
         <v>9447</v>
       </c>
-      <c r="W30">
+      <c r="W30" t="n">
         <v>8080</v>
       </c>
-      <c r="X30">
+      <c r="X30" t="n">
         <v>5937</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" t="n">
         <v>1444</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>6969</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>1627</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>1256</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>17032</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>8427</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>11515</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>6672</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>1663</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>1207</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>16438</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>8036</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>11706</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="n">
         <v>6732</v>
       </c>
-      <c r="O31">
+      <c r="O31" t="n">
         <v>1648</v>
       </c>
-      <c r="P31">
+      <c r="P31" t="n">
         <v>1266</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="n">
         <v>16140</v>
       </c>
-      <c r="R31">
+      <c r="R31" t="n">
         <v>8260</v>
       </c>
-      <c r="S31">
+      <c r="S31" t="n">
         <v>11212</v>
       </c>
-      <c r="T31">
+      <c r="T31" t="n">
         <v>5404</v>
       </c>
-      <c r="U31">
+      <c r="U31" t="n">
         <v>1616</v>
       </c>
-      <c r="V31">
+      <c r="V31" t="n">
         <v>1185</v>
       </c>
-      <c r="W31">
+      <c r="W31" t="n">
         <v>15289</v>
       </c>
-      <c r="X31">
+      <c r="X31" t="n">
         <v>8297</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" t="n">
         <v>10246</v>
       </c>
     </row>
@@ -1974,229 +1760,365 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Plate layout</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1:6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7:12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A:H</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I:P</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Peptide layout</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>No Pep</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CCPent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>QLKEIA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CCHex2-I24K</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CCHept-I24N</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CCHept-L28W</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GRP22</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CCHex</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NLKEIA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CCHept-L28K</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CCHept-I24T</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CCHept-L7Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GRP35</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CCHex2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CCHept-I17G-L21G</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CCHept-I17H</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CCHept-I24H</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CCHept-L28Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GRP46</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CCHept</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CCHept-I17A-L21A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CCHept-I17K-I24E</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CCHept-L21S-I24S</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CCHept-I24Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GRP51</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CCHept-I24D</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CCHept-L14A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CCHept-L7K</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CCHept-L21N-I24N</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CCHept-L21S-I24Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GRP52</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CCHept-I24E</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CCHept-I24A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CCHept-L21K-I24E</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CCHept-L21T-I24T</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CCHept-L21Y-I24S</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GRP63</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CCHept-I24K</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CCHept-L21K</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CCHept-L21E-I24K</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CCHept-L21H-I24H</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CCHept-I17T</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GRP80</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CCHept-I17K</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CCPent-I24K</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CCHept-I24S</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CCHept-L7W</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CCHept-I24P</t>
+        </is>
       </c>
     </row>
   </sheetData>
